--- a/Stimulu_table/fruits-3.xlsx
+++ b/Stimulu_table/fruits-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninasolovyeva3/Documents/MATLAB/fruits_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABCA2BA-31D7-D04B-A1F2-962CAFEC86F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD415D1-E779-3D4A-91D2-45CA60222062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="3980" windowWidth="21780" windowHeight="13420" activeTab="4" xr2:uid="{2DC4BD99-AB50-3C4C-932F-DF093436E8C1}"/>
+    <workbookView xWindow="12900" yWindow="3560" windowWidth="21780" windowHeight="13420" activeTab="4" xr2:uid="{2DC4BD99-AB50-3C4C-932F-DF093436E8C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="109">
   <si>
     <t>Image Name</t>
   </si>
@@ -348,9 +348,6 @@
     <t>flippedimg_6</t>
   </si>
   <si>
-    <t>flippedimg_13</t>
-  </si>
-  <si>
     <t>flippedimg_18</t>
   </si>
   <si>
@@ -358,6 +355,15 @@
   </si>
   <si>
     <t>flippedimg_52</t>
+  </si>
+  <si>
+    <t>flippedimg_12</t>
+  </si>
+  <si>
+    <t>flippedimg_29</t>
+  </si>
+  <si>
+    <t>flippedimg_30</t>
   </si>
 </sst>
 </file>
@@ -410,6 +416,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14B78C0-F3EF-4F40-B36C-EFB3FE177C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11036300" y="5041900"/>
+          <a:ext cx="6972300" cy="5194300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4470,8 +4525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD6634B-EC0B-3647-926A-0EAB7C7E842C}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6308,10 +6363,13 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6379,18 +6437,18 @@
         <v>10.100000000000001</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I21" si="2">ABS(G2-H2)</f>
-        <v>4.0000000000000009</v>
+        <f>G2-H2</f>
+        <v>-4.0000000000000009</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K21" si="3">IF(G2&gt;H2,1,0)</f>
+        <f t="shared" ref="K2:K21" si="2">IF(G2&gt;H2,1,0)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L21" si="4">IF(K2=J2,1,0)</f>
+        <f t="shared" ref="L2:L21" si="3">IF(K2=J2,1,0)</f>
         <v>1</v>
       </c>
       <c r="N2" t="s">
@@ -6428,18 +6486,18 @@
         <v>6.1000000000000005</v>
       </c>
       <c r="I3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I3:I21" si="4">G3-H3</f>
         <v>4.0000000000000009</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N3" t="s">
@@ -6477,18 +6535,18 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>-4</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6520,18 +6578,18 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6563,18 +6621,18 @@
         <v>7.4</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6606,18 +6664,18 @@
         <v>5.2</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
-        <v>0.79999999999999982</v>
+        <f t="shared" si="4"/>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6649,18 +6707,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6692,24 +6750,24 @@
         <v>6.1000000000000005</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -6718,78 +6776,78 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>6.1000000000000005</v>
+        <v>6.5</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>G10-H10</f>
+        <v>2.3000000000000007</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>6.1000000000000005</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
-        <v>0.40000000000000036</v>
+        <f>G11-H11</f>
+        <v>-1.4000000000000004</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6821,18 +6879,18 @@
         <v>7.4</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>0.40000000000000036</v>
+        <f t="shared" si="4"/>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6864,24 +6922,24 @@
         <v>7.9</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -6907,24 +6965,24 @@
         <v>5.7</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f>G14-H14</f>
         <v>0.40000000000000036</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -6950,67 +7008,67 @@
         <v>5.7</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>7.9</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>8.3000000000000007</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
-        <v>0.40000000000000036</v>
+        <f>G16-H16</f>
+        <v>-0.5</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -7036,24 +7094,24 @@
         <v>7.9</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -7062,35 +7120,35 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>5.7</v>
+        <v>7.9</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>6.1000000000000005</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
-        <v>0.40000000000000036</v>
+        <f>G18-H18</f>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7122,18 +7180,18 @@
         <v>7</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7165,24 +7223,24 @@
         <v>6.6000000000000005</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -7208,18 +7266,18 @@
         <v>7</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
-        <v>0.39999999999999947</v>
+        <f t="shared" si="4"/>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7228,5 +7286,6 @@
     <sortCondition descending="1" ref="I2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>